--- a/VACA 1.xlsx
+++ b/VACA 1.xlsx
@@ -32,12 +32,6 @@
     <t>CÓDIGO</t>
   </si>
   <si>
-    <t>P. BOLSA</t>
-  </si>
-  <si>
-    <t>P. MUESTRA</t>
-  </si>
-  <si>
     <t>%Prot.i</t>
   </si>
   <si>
@@ -99,6 +93,12 @@
   </si>
   <si>
     <t>M1 T48 R1·1</t>
+  </si>
+  <si>
+    <t>MUESTRA</t>
+  </si>
+  <si>
+    <t>BOLSA</t>
   </si>
 </sst>
 </file>
@@ -524,12 +524,12 @@
   <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E17:E18"/>
+      <selection activeCell="C1" sqref="C1:C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -537,28 +537,28 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>7</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -566,7 +566,7 @@
         <v>18</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5">
         <v>2.4847999999999999</v>
@@ -596,10 +596,10 @@
         <v>17</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="6">
         <v>4.1947000000000001</v>
@@ -628,7 +628,7 @@
         <v>16</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" s="5">
         <v>2.5001000000000002</v>
@@ -658,7 +658,7 @@
         <v>15</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" s="6">
         <v>2.4502999999999999</v>
@@ -690,7 +690,7 @@
         <v>14</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" s="5">
         <v>2.4777</v>
@@ -720,7 +720,7 @@
         <v>13</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="6">
         <v>2.5064000000000002</v>
@@ -752,7 +752,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" s="5">
         <v>2.5066000000000002</v>
@@ -782,7 +782,7 @@
         <v>11</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" s="6">
         <v>2.4417</v>
@@ -814,7 +814,7 @@
         <v>10</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" s="5">
         <v>2.5156000000000001</v>
@@ -844,7 +844,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="6">
         <v>2.4615</v>
@@ -876,7 +876,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="5">
         <v>2.4897999999999998</v>
@@ -906,7 +906,7 @@
         <v>7</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C13" s="6">
         <v>2.5259999999999998</v>
@@ -938,7 +938,7 @@
         <v>6</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C14" s="5">
         <v>2.4460999999999999</v>
@@ -968,7 +968,7 @@
         <v>5</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C15" s="6">
         <v>2.4883000000000002</v>
